--- a/heuristic_analysis.xlsx
+++ b/heuristic_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorcus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorcus\Documents\GitHub\AIND-Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>Search</t>
   </si>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,11 +944,21 @@
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1080,11 +1090,21 @@
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1110,11 +1130,21 @@
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1140,11 +1170,21 @@
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1190,21 +1230,41 @@
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="1">
+        <v>5040</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5042</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44944</v>
+      </c>
+      <c r="E37" s="1">
+        <v>12</v>
+      </c>
+      <c r="F37" s="3">
+        <v>96.928560168806598</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="5">
+        <v>318</v>
+      </c>
+      <c r="C38" s="5">
+        <v>320</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2934</v>
+      </c>
+      <c r="E38" s="5">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6">
+        <v>398.02412863564001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
